--- a/static/excel/手机三要素模版.xlsx
+++ b/static/excel/手机三要素模版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/liufengjing/数赟/大数据/核验模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13386\Desktop\git\shuyun-ui\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2B6F0-59D7-4C61-A08C-B1875A452975}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="银行卡三要素" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -60,15 +61,19 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>310115199402221000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -139,6 +144,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -420,22 +428,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,12 +457,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
-        <v>3.1011519940222099E+17</v>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="6">
         <v>13912345678</v>
@@ -468,14 +476,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>